--- a/template_excel/6新就业人员信息台账.xlsx
+++ b/template_excel/6新就业人员信息台账.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSH\Desktop\SQ\台账\空表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\SQ\Tz_Create\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9965C95-DBB9-476E-8401-3229C79BAD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7CC164-2856-4B8C-BCD4-581207D8E14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1500" windowWidth="25455" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,22 +71,40 @@
     <t>就业人员类型（符合项填是）</t>
   </si>
   <si>
-    <t>单位就业</t>
-  </si>
-  <si>
-    <t>个体工商户</t>
-  </si>
-  <si>
-    <t>公益性岗位</t>
-  </si>
-  <si>
-    <t>灵活就业</t>
-  </si>
-  <si>
-    <t>失业人员再就业</t>
-  </si>
-  <si>
-    <t>就业困难再就业</t>
+    <t>单位
+就业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体
+工商
+户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公益
+性岗
+位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活
+就业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业
+人员
+再就
+业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>就业
+困难
+再就
+业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -94,9 +112,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -159,6 +177,21 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -288,23 +321,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,6 +364,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,7 +653,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -653,127 +686,127 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="10" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
